--- a/data/trans_dic/P79_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,85</t>
+          <t>0,79; 7,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,88</t>
+          <t>1,87; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,1</t>
+          <t>1,94; 6,04</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,0</t>
+          <t>2,07; 7,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,32</t>
+          <t>0,69; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,21</t>
+          <t>1,72; 4,25</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,06</t>
+          <t>1,92; 5,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,77</t>
+          <t>0,92; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,71</t>
+          <t>1,6; 3,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,19</t>
+          <t>1,16; 3,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,48</t>
+          <t>0,93; 2,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,52</t>
+          <t>1,25; 2,57</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,14</t>
+          <t>0,48; 2,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,97</t>
+          <t>0,52; 1,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,68</t>
+          <t>0,63; 1,7</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,08; 0,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,86</t>
+          <t>0,16; 0,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,63</t>
+          <t>0,15; 0,6</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,79</t>
+          <t>1,58; 2,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,86</t>
+          <t>1,09; 1,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,14</t>
+          <t>1,4; 2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,31</t>
+          <t>0,94; 7,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,96</t>
+          <t>1,92; 7,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,04</t>
+          <t>1,95; 6,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,04</t>
+          <t>2,09; 7,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,37</t>
+          <t>0,7; 3,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,25</t>
+          <t>1,58; 4,21</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,12</t>
+          <t>1,83; 5,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,8</t>
+          <t>0,91; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,42</t>
+          <t>1,73; 3,71</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,42</t>
+          <t>1,08; 3,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,42</t>
+          <t>0,95; 2,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,57</t>
+          <t>1,22; 2,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,25</t>
+          <t>0,47; 2,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,82</t>
+          <t>0,53; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,7</t>
+          <t>0,62; 1,68</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,79</t>
+          <t>0,08; 0,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,84</t>
+          <t>0,16; 0,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,6</t>
+          <t>0,17; 0,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,77</t>
+          <t>1,56; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,89</t>
+          <t>1,1; 1,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,12</t>
+          <t>1,43; 2,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,85</t>
+          <t>0,86; 7,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,88</t>
+          <t>1,8; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,1</t>
+          <t>1,8; 6,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,0</t>
+          <t>1,96; 6,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,32</t>
+          <t>0,64; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,21</t>
+          <t>1,41; 3,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,06</t>
+          <t>1,8; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,77</t>
+          <t>0,9; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,71</t>
+          <t>1,7; 3,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,19</t>
+          <t>0,46; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,48</t>
+          <t>0,91; 2,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,52</t>
+          <t>0,86; 2,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,14</t>
+          <t>0,47; 2,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,97</t>
+          <t>0,52; 1,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,68</t>
+          <t>0,61; 1,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,14; 1,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,86</t>
+          <t>0,06; 0,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,63</t>
+          <t>0,15; 0,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,79</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,86</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,14</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 2,62</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,74</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 2,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P79_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que sufre violencia física, emocional o sexual</t>
+          <t>Población que en los útlimos 2 años ha sufrido algún tipo de violencia física, emocional o sexual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,89</t>
+          <t>0,83; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,52</t>
+          <t>1,65; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,06</t>
+          <t>1,64; 5,7</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,58</t>
+          <t>1,83; 6,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,26</t>
+          <t>0,65; 3,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,92</t>
+          <t>1,52; 4,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,99</t>
+          <t>1,77; 4,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,74</t>
+          <t>0,97; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,62</t>
+          <t>1,62; 3,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,56</t>
+          <t>0,55; 2,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,43</t>
+          <t>0,91; 2,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,23</t>
+          <t>0,83; 2,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,06</t>
+          <t>0,43; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,93</t>
+          <t>0,45; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,63</t>
+          <t>0,58; 1,68</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,3</t>
+          <t>0,14; 1,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,95</t>
+          <t>0,07; 1,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,87</t>
+          <t>0,16; 0,84</t>
         </is>
       </c>
     </row>
@@ -884,12 +885,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,55</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,62</t>
+          <t>1,35; 2,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,74</t>
+          <t>0,98; 1,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,01</t>
+          <t>1,28; 1,99</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los útlimos 2 años ha sufrido algún tipo de violencia física, emocional o sexual</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11857</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11987</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23844</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3339; 29649</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5179; 22383</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11677; 40641</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15477</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8292</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23769</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7765; 27210</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3311; 16205</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14211; 38714</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16864</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9106</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25970</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9504; 25800</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5276; 15522</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17452; 36901</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13489</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10668</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24157</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4842; 24526</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6435; 17698</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13246; 34887</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6039</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5472</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11511</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2420; 11164</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2477; 10296</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6404; 18556</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2502</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4191</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>518; 4711</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>451; 6137</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1524; 8209</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1183</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3923</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3949</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>65414</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>49148</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>114562</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>46810; 90543</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>35694; 65259</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>91329; 141680</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>